--- a/src/original_data/help/origin_destination_countries.xlsx
+++ b/src/original_data/help/origin_destination_countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Syria</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>Moldova</t>
-  </si>
-  <si>
-    <t>Palestine</t>
   </si>
   <si>
     <t>Romania</t>
@@ -580,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
@@ -889,33 +886,33 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
+      <c r="A46" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -925,66 +922,61 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
+      <c r="A54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>30</v>
+      <c r="A56" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/src/original_data/help/origin_destination_countries.xlsx
+++ b/src/original_data/help/origin_destination_countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Syria</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +986,16 @@
         <v>35</v>
       </c>
     </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:A41">
     <sortCondition ref="A1"/>
